--- a/data/trans_camb/P19C08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 1,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 1,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; -0,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 0,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 0,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 0,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 0,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 0,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 0,02</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,91%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-76,26; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,36; 228,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,74; 252,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,23; 52,89</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 1,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 1,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 0,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; -0,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 0,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 0,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; -0,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 0,53</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>634,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>796,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,68%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-50,23; 426,78</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,1; 121,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,33; 643,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 11,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,31; 362,69</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 0,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 0,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 0,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 0,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 0,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 1,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 0,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 0,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 0,4</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,71%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,43%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,87%</t>
         </is>
       </c>
     </row>
@@ -1233,37 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 83,96</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,79; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,57; 148,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 88,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,67; 119,54</t>
         </is>
       </c>
     </row>
@@ -1280,42 +1280,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 0,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 0,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 0,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 0,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; -0,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 0,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 0,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; -0,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 0,27</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,94%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,42%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,66%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,7%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,8; 315,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,34; 49,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,88; 279,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,85; 136,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,4; 15,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,21; 55,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,55; 136,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,36; -8,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,0; 91,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Estudios-trans_camb.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,34</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,22</t>
+          <t>-0,87; 0,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 0,02</t>
+          <t>-0,79; -0,0</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-52,67%</t>
+          <t>-55,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-67,91%</t>
+          <t>-70,14%</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-94,23; 52,89</t>
+          <t>-94,43; 40,97</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,16</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,28</t>
+          <t>0,16; 1,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,22</t>
+          <t>-0,7; 0,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 0,53</t>
+          <t>-0,16; 0,48</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>796,55%</t>
+          <t>696,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-28,56%</t>
+          <t>-37,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>77,68%</t>
+          <t>58,98%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,1; 121,82</t>
+          <t>-80,02; 90,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 362,69</t>
+          <t>-43,66; 310,42</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,33</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,08</t>
+          <t>-2,0; 0,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,09</t>
+          <t>-1,21; 1,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,4</t>
+          <t>-1,07; 0,35</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-65,89%</t>
+          <t>-69,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-33,87%</t>
+          <t>-37,12%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 83,96</t>
+          <t>-100,0; 54,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,79; —</t>
+          <t>-86,62; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-78,67; 119,54</t>
+          <t>-79,38; 111,59</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 0,56</t>
+          <t>-0,21; 0,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,18</t>
+          <t>-0,55; 0,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 0,27</t>
+          <t>-0,27; 0,23</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>44,3%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-23,82%</t>
+          <t>-29,88%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>-7,59%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-40,88; 279,7</t>
+          <t>-49,6; 238,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,21; 55,42</t>
+          <t>-69,31; 41,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 91,58</t>
+          <t>-46,63; 74,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 1,41</t>
+          <t>-0,46; 1,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,67</t>
+          <t>-0,41; 1,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,1; -0,13</t>
+          <t>-1,25; -0,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,47</t>
+          <t>-0,84; 0,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,69</t>
+          <t>-0,76; 0,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,19</t>
+          <t>-0,93; 0,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,55</t>
+          <t>-0,46; 0,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,62</t>
+          <t>-0,48; 0,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; -0,0</t>
+          <t>-0,8; -0,02</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,26; —</t>
+          <t>-75,1; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 302,39</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,77; 108,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,36; 228,97</t>
+          <t>-66,28; 286,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-74,74; 252,07</t>
+          <t>-78,25; 237,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-94,43; 40,97</t>
+          <t>-96,88; 10,85</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,08</t>
+          <t>0,14; 1,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -911,22 +911,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,14</t>
+          <t>0,19; 1,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 0,94</t>
+          <t>-0,25; 0,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; -0,13</t>
+          <t>-0,97; -0,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,16</t>
+          <t>-0,77; 0,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; -0,07</t>
+          <t>-0,54; -0,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 0,48</t>
+          <t>-0,17; 0,48</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,23; 426,78</t>
+          <t>-39,32; 463,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-80,02; 90,1</t>
+          <t>-81,16; 104,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 643,46</t>
+          <t>-8,9; 569,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 11,69</t>
+          <t>-100,0; 82,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,66; 310,42</t>
+          <t>-42,37; 331,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,95</t>
+          <t>-1,49; 0,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,02</t>
+          <t>-1,97; 0,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 0,03</t>
+          <t>-1,86; 0,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,64</t>
+          <t>-1,56; 0,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,81</t>
+          <t>-1,38; 0,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,07</t>
+          <t>-1,16; 1,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,49</t>
+          <t>-1,09; 0,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 0,15</t>
+          <t>-1,29; 0,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 0,35</t>
+          <t>-1,04; 0,38</t>
         </is>
       </c>
     </row>
@@ -1228,42 +1228,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-99,76; 203,49</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 54,49</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,62; —</t>
+          <t>-84,75; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-82,57; 148,31</t>
+          <t>-83,08; 80,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 88,0</t>
+          <t>-91,0; 123,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-79,38; 111,59</t>
+          <t>-76,72; 127,95</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 0,67</t>
+          <t>-0,09; 0,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,06</t>
+          <t>-0,49; 0,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 0,49</t>
+          <t>-0,23; 0,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 0,45</t>
+          <t>-0,35; 0,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; -0,02</t>
+          <t>-0,71; -0,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 0,13</t>
+          <t>-0,51; 0,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 0,44</t>
+          <t>-0,08; 0,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; -0,03</t>
+          <t>-0,47; -0,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,23</t>
+          <t>-0,29; 0,21</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,8; 315,1</t>
+          <t>-24,98; 358,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-91,34; 49,95</t>
+          <t>-90,67; 63,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,6; 238,28</t>
+          <t>-53,43; 261,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 136,66</t>
+          <t>-44,55; 131,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-89,4; 15,07</t>
+          <t>-89,77; 10,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-69,31; 41,86</t>
+          <t>-64,39; 62,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 136,0</t>
+          <t>-18,42; 143,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-82,36; -8,53</t>
+          <t>-81,0; -17,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-46,63; 74,32</t>
+          <t>-49,14; 68,51</t>
         </is>
       </c>
     </row>
